--- a/biology/Zoologie/Aprion/Aprion.xlsx
+++ b/biology/Zoologie/Aprion/Aprion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Aprion verdâtre (Aprion virescens)[1] est un poisson marin de la famille des Lutjanidae et du genre monotypique Aprion. Il est appelé aussi mékoua en Nouvelle-Calédonie et job à La Réunion.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Aprion verdâtre (Aprion virescens) est un poisson marin de la famille des Lutjanidae et du genre monotypique Aprion. Il est appelé aussi mékoua en Nouvelle-Calédonie et job à La Réunion.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un gros poisson carnivore, qui peut atteindre une longueur de 112 cm[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un gros poisson carnivore, qui peut atteindre une longueur de 112 cm. 
 			Spécimen pêché
 			Schéma
 </t>
@@ -544,9 +558,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un poisson tropical répandu de l'Afrique de l'Est au Pacifique. Il vit entre la surface et 180 mètres de profondeur[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un poisson tropical répandu de l'Afrique de l'Est au Pacifique. Il vit entre la surface et 180 mètres de profondeur. 
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Relations à l'Homme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un poisson important pour la pêche industrielle, mais il peut être dangereux de le consommer, des cas d'intoxication à la ciguatera ayant été signalés[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un poisson important pour la pêche industrielle, mais il peut être dangereux de le consommer, des cas d'intoxication à la ciguatera ayant été signalés.
 </t>
         </is>
       </c>
